--- a/Dokumentation/StoryMap/Storymap.xlsx
+++ b/Dokumentation/StoryMap/Storymap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>User</t>
   </si>
@@ -32,18 +32,6 @@
     <t>Anmelden</t>
   </si>
   <si>
-    <t>Namen ändern</t>
-  </si>
-  <si>
-    <t>Passwort ändern</t>
-  </si>
-  <si>
-    <t>Postleitzahl ändern</t>
-  </si>
-  <si>
-    <t>Adresse ändern</t>
-  </si>
-  <si>
     <t>Daten ändern</t>
   </si>
   <si>
@@ -110,9 +98,6 @@
     <t>Aktivitäten einsehen</t>
   </si>
   <si>
-    <t>E-Mail ändern</t>
-  </si>
-  <si>
     <t>Benutzername/Passwort eingeben</t>
   </si>
   <si>
@@ -141,6 +126,24 @@
   </si>
   <si>
     <t>Benachrichtig-ung Verwaltung</t>
+  </si>
+  <si>
+    <t>Registrieren</t>
+  </si>
+  <si>
+    <t>Namen eingeben</t>
+  </si>
+  <si>
+    <t>Passwort eingeben</t>
+  </si>
+  <si>
+    <t>Postleitzahl eingeben</t>
+  </si>
+  <si>
+    <t>E-Mail eingeben</t>
+  </si>
+  <si>
+    <t>Adresse eingeben</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
   <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:AE15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -566,23 +569,26 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -591,154 +597,157 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="W5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>31</v>
+      <c r="M7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="W9" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="W11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="4" t="s">
-        <v>28</v>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="4" t="s">
-        <v>5</v>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
